--- a/메타버스12 엑셀.xlsx
+++ b/메타버스12 엑셀.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DW\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DW\Documents\github\meta12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="가계부" sheetId="1" r:id="rId1"/>
     <sheet name="캘린더" sheetId="2" r:id="rId2"/>
     <sheet name="성적표" sheetId="3" r:id="rId3"/>
     <sheet name="직원명단관리표" sheetId="4" r:id="rId4"/>
+    <sheet name="재고관리표" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">직원명단관리표!$A$3:$E$13</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="122">
   <si>
     <t>나의가계부</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -390,6 +391,140 @@
   </si>
   <si>
     <t>차장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>품목코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>품목명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재재고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안전재고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P002</t>
+  </si>
+  <si>
+    <t>P003</t>
+  </si>
+  <si>
+    <t>P004</t>
+  </si>
+  <si>
+    <t>P005</t>
+  </si>
+  <si>
+    <t>P006</t>
+  </si>
+  <si>
+    <t>P007</t>
+  </si>
+  <si>
+    <t>노트북</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마우스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자제품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>책상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모니터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>키보드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>책장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프린터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자제품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고관리표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가구 재고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자 제품 재고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부족 품목 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 품목 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자제품 총 재고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가구 총 재고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고 현황 요약</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자제품</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -403,7 +538,7 @@
     <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,8 +654,41 @@
       <family val="1"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="HY헤드라인M"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="HY견고딕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -575,8 +743,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -819,6 +1005,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -828,7 +1073,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -892,28 +1137,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -922,21 +1146,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -946,70 +1161,184 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1017,7 +1346,97 @@
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="4"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF5993D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF7C80"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF5993D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF5993D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF5993D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1036,6 +1455,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FFF5993D"/>
       <color rgb="FFEEB7EF"/>
       <color rgb="FFB381D9"/>
     </mruColors>
@@ -1329,18 +1750,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -1479,15 +1900,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -1623,12 +2044,12 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G3:G7">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>G3&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A7">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>A3&lt;&gt;""</formula>
     </cfRule>
     <cfRule type="expression" priority="2">
@@ -1653,241 +2074,241 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="54"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="38" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="47">
+      <c r="A4" s="31">
         <v>1</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="21">
         <v>85</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="21">
         <v>90</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="21">
         <v>78</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="21">
         <f>C4+D4+E4</f>
         <v>253</v>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="32">
         <f>F4/3</f>
         <v>84.333333333333329</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47">
+      <c r="A5" s="31">
         <v>2</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="21">
         <v>92</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="21">
         <v>88</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="21">
         <v>95</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="21">
         <f t="shared" ref="F5:F8" si="0">C5+D5+E5</f>
         <v>275</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="32">
         <f t="shared" ref="G5:G8" si="1">F5/3</f>
         <v>91.666666666666671</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47">
+      <c r="A6" s="31">
         <v>3</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="21">
         <v>84</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="21">
         <v>92</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="21">
         <v>94</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="21">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="32">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="47">
+      <c r="A7" s="31">
         <v>4</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="21">
         <v>88</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="21">
         <v>91</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="21">
         <v>89</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="21">
         <f t="shared" si="0"/>
         <v>268</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="32">
         <f t="shared" si="1"/>
         <v>89.333333333333329</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="49">
+      <c r="A8" s="33">
         <v>5</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="34">
         <v>95</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="34">
         <v>85</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E8" s="34">
         <v>92</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="34">
         <f t="shared" si="0"/>
         <v>272</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="35">
         <f t="shared" si="1"/>
         <v>90.666666666666671</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
     </row>
     <row r="10" spans="1:7" ht="41.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36">
+      <c r="B10" s="52"/>
+      <c r="C10" s="26">
         <f>MAX(C4:C8)</f>
         <v>95</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="26">
         <f t="shared" ref="D10:E10" si="2">MAX(D4:D8)</f>
         <v>92</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="26">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="38"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="1:7" ht="41.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29">
+      <c r="B11" s="54"/>
+      <c r="C11" s="22">
         <f>MIN(C4:C8)</f>
         <v>84</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="22">
         <f t="shared" ref="D11:E11" si="3">MIN(D4:D8)</f>
         <v>85</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="22">
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="40"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:7" ht="41.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="33">
+      <c r="B12" s="56"/>
+      <c r="C12" s="25">
         <f>AVERAGE(C10:C11)</f>
         <v>89.5</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="25">
         <f t="shared" ref="D12:E12" si="4">AVERAGE(D10:D11)</f>
         <v>88.5</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="25">
         <f t="shared" si="4"/>
         <v>86.5</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="42"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1907,8 +2328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1950,16 +2371,16 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="5">
         <v>1001</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E4" s="60">
@@ -1967,16 +2388,16 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="5">
         <v>1002</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E5" s="60">
@@ -1984,16 +2405,16 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="5">
         <v>1003</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E6" s="60">
@@ -2001,16 +2422,16 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="5">
         <v>1004</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E7" s="60">
@@ -2018,16 +2439,16 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="5">
         <v>1005</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E8" s="60">
@@ -2035,16 +2456,16 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="5">
         <v>1006</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>79</v>
       </c>
       <c r="E9" s="60">
@@ -2052,16 +2473,16 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="5">
         <v>1007</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>80</v>
       </c>
       <c r="E10" s="60">
@@ -2069,16 +2490,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="5">
         <v>1008</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>81</v>
       </c>
       <c r="E11" s="60">
@@ -2086,16 +2507,16 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12" s="5">
         <v>1009</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>85</v>
       </c>
       <c r="E12" s="60">
@@ -2103,16 +2524,16 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="5">
         <v>1010</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E13" s="60">
@@ -2130,4 +2551,325 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="65"/>
+      <c r="H1" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="71"/>
+    </row>
+    <row r="2" spans="1:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="68"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="74"/>
+    </row>
+    <row r="3" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="L3" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="M3" s="85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="79">
+        <v>15</v>
+      </c>
+      <c r="E4" s="79">
+        <v>20</v>
+      </c>
+      <c r="F4" s="80" t="str">
+        <f>IF(D4&lt;E4*0.5,"긴급",IF(D4&lt;E4,"부족","정상"))</f>
+        <v>부족</v>
+      </c>
+      <c r="H4" s="86">
+        <f>COUNTA(A4:A11)</f>
+        <v>8</v>
+      </c>
+      <c r="I4" s="87">
+        <f>COUNTIF(F4:F11,"부족")</f>
+        <v>3</v>
+      </c>
+      <c r="J4" s="87">
+        <f>COUNTIF(C4:C11,"전자제품")</f>
+        <v>5</v>
+      </c>
+      <c r="K4" s="87">
+        <f>COUNTIF(C4:C11,"가구")</f>
+        <v>3</v>
+      </c>
+      <c r="L4" s="87">
+        <f>SUMIF(C4:C11,"전자제품",D4:D11)</f>
+        <v>135</v>
+      </c>
+      <c r="M4" s="88">
+        <f>SUMIF(C4:C11,"가구",D4:D11)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="79" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="79">
+        <v>50</v>
+      </c>
+      <c r="E5" s="79">
+        <v>30</v>
+      </c>
+      <c r="F5" s="80" t="str">
+        <f t="shared" ref="F5:F11" si="0">IF(D5&lt;E5*0.5,"긴급",IF(D5&lt;E5,"부족","정상"))</f>
+        <v>정상</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="79">
+        <v>8</v>
+      </c>
+      <c r="E6" s="79">
+        <v>15</v>
+      </c>
+      <c r="F6" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>부족</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="79">
+        <v>25</v>
+      </c>
+      <c r="E7" s="79">
+        <v>20</v>
+      </c>
+      <c r="F7" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>정상</v>
+      </c>
+      <c r="I7" s="61"/>
+    </row>
+    <row r="8" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="78" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="79" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="79">
+        <v>12</v>
+      </c>
+      <c r="E8" s="79">
+        <v>25</v>
+      </c>
+      <c r="F8" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>긴급</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="79" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="79">
+        <v>40</v>
+      </c>
+      <c r="E9" s="79">
+        <v>30</v>
+      </c>
+      <c r="F9" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>정상</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="79">
+        <v>5</v>
+      </c>
+      <c r="E10" s="79">
+        <v>10</v>
+      </c>
+      <c r="F10" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>부족</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="82">
+        <v>18</v>
+      </c>
+      <c r="E11" s="82">
+        <v>15</v>
+      </c>
+      <c r="F11" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>정상</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="62"/>
+    </row>
+    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="H1:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="F4:F11">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>F4="정상"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>F4="부족"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F11">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>F4="긴급"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13">
+      <formula1>C11</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>